--- a/sadNeutral.xlsx
+++ b/sadNeutral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nakisa/Experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nakisa/Downloads/COGS189_Project-Eric_Test 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCBBC5-5367-C242-9976-26A083861F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89EC37-B766-9147-A2D1-31683DC5115B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="560" windowWidth="27640" windowHeight="15400" xr2:uid="{39B31949-8AE6-4D40-9DD7-EE1F491EE022}"/>
+    <workbookView xWindow="80" yWindow="1960" windowWidth="15760" windowHeight="14460" xr2:uid="{39B31949-8AE6-4D40-9DD7-EE1F491EE022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>images</t>
   </si>
@@ -92,9 +92,6 @@
     <t>sad</t>
   </si>
   <si>
-    <t>SadNeutral/s028-02_img.bmp</t>
-  </si>
-  <si>
     <t>SadNeutral/116_m_m_n_a.jpg</t>
   </si>
   <si>
@@ -164,24 +161,15 @@
     <t>SadNeutral/s028-00_img.bmp</t>
   </si>
   <si>
-    <t>SadNeutral/Neutral 1.jpg</t>
-  </si>
-  <si>
     <t>SadNeutral/Neutral 9.jpg</t>
   </si>
   <si>
     <t>SadNeutral/Neutral 10.jpg</t>
   </si>
   <si>
-    <t>SadNeutral/s037-02_img.bmp</t>
-  </si>
-  <si>
     <t>SadNeutral/s006-02_img.bmp</t>
   </si>
   <si>
-    <t>SadNeutral/s003-02_img.bmp</t>
-  </si>
-  <si>
     <t>SadNeutral/168_m_f_s_b.jpg</t>
   </si>
   <si>
@@ -218,13 +206,70 @@
     <t>SadNeutral/116_m_m_s_a.jpg</t>
   </si>
   <si>
-    <t>SadNeutral/s005-02_img.bmp</t>
-  </si>
-  <si>
     <t>SadNeutral/066_y_m_s_a.jpg</t>
   </si>
   <si>
     <t>SadNeutral/s018-02_img.bmp</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM05SAS.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AF20SAS.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AF20NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM05NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM14NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM11SAS.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM22NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AM23NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF10SAS.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF10NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF09NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF14NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF28NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF34NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF26NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BM05NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BM25NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF19NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/BF06NES.JPG</t>
+  </si>
+  <si>
+    <t>SadNeutral/AF01NES.JPG</t>
   </si>
 </sst>
 </file>
@@ -247,12 +292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,9 +318,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE2045-B57B-0B40-96AF-A6EE141375A6}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,19 +659,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -640,7 +693,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -661,19 +714,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -684,7 +737,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -695,7 +748,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -706,7 +759,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -716,19 +769,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -739,7 +792,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -760,41 +813,41 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -826,19 +879,19 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -849,7 +902,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -859,19 +912,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -882,7 +935,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -893,7 +946,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -904,7 +957,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -915,7 +968,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -925,19 +978,19 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -947,19 +1000,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -970,7 +1023,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -981,7 +1034,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -992,7 +1045,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -1003,7 +1056,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1014,7 +1067,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1025,7 +1078,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1035,19 +1088,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -1057,19 +1110,19 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -1079,19 +1132,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1102,7 +1155,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1113,7 +1166,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -1124,7 +1177,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -1135,7 +1188,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1146,7 +1199,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1156,19 +1209,19 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="A52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1179,7 +1232,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1189,13 +1242,13 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="A55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1212,7 +1265,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -1223,7 +1276,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -1234,7 +1287,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -1244,19 +1297,19 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -1267,7 +1320,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1277,13 +1330,13 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="A63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1300,7 +1353,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -1311,7 +1364,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -1321,19 +1374,19 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -1344,7 +1397,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -1365,13 +1418,13 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
